--- a/test/Lote de Prueba.xlsx
+++ b/test/Lote de Prueba.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ce50b2aba9b68ac7/Escritorio/CODERHOUSE/JAVASCRIPT/[D] - Incorporar eventos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ce50b2aba9b68ac7/Escritorio/CODERHOUSE/JAVASCRIPT/[D] - Nueva Estructura PF/root/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{C8D7050F-D6E3-49DD-8D27-DE4EAEC43F9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{016CDC55-A3CD-4C24-9CBF-35F6851A804F}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="8_{C8D7050F-D6E3-49DD-8D27-DE4EAEC43F9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{44AD3036-CEDE-466D-9ED0-B67864D6CF74}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0FE50315-03D3-479B-8513-3A80CC596F56}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{0FE50315-03D3-479B-8513-3A80CC596F56}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -33,10 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="23">
-  <si>
-    <t>CARGA DE PRODUCTOS</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="28">
   <si>
     <t>Nombre</t>
   </si>
@@ -47,15 +44,6 @@
     <t>Cantidad</t>
   </si>
   <si>
-    <t>Arroz</t>
-  </si>
-  <si>
-    <t>Fideos</t>
-  </si>
-  <si>
-    <t>Aceite</t>
-  </si>
-  <si>
     <t>VENTA DE PRODUCTOS</t>
   </si>
   <si>
@@ -68,9 +56,6 @@
     <t>Stock Actualizado</t>
   </si>
   <si>
-    <t>Cafe</t>
-  </si>
-  <si>
     <t>TOTAL VENDIDO:</t>
   </si>
   <si>
@@ -83,25 +68,55 @@
     <t>Nuevo Stock</t>
   </si>
   <si>
-    <t>Café</t>
-  </si>
-  <si>
     <t>Codigo</t>
   </si>
   <si>
-    <t>001A</t>
-  </si>
-  <si>
-    <t>002F</t>
-  </si>
-  <si>
-    <t>003C</t>
-  </si>
-  <si>
-    <t>004A</t>
-  </si>
-  <si>
-    <t>BUSCAR PRODUCTOS (SUS NUEVOS DATOS)</t>
+    <t>PRODUCTOS CARGADOS</t>
+  </si>
+  <si>
+    <t>CARGA PRODUCTOS</t>
+  </si>
+  <si>
+    <t>PASTILLAS DRF 12u</t>
+  </si>
+  <si>
+    <t>000PDRF</t>
+  </si>
+  <si>
+    <t>000GBKN</t>
+  </si>
+  <si>
+    <t>GOMITAS BILLIKEN 800g</t>
+  </si>
+  <si>
+    <t>CARAMELOS BILLIKEN 200u</t>
+  </si>
+  <si>
+    <t>000CBKN</t>
+  </si>
+  <si>
+    <t>ALFAJORES ARRABAL 12u</t>
+  </si>
+  <si>
+    <t>000AARB</t>
+  </si>
+  <si>
+    <t>BOMBONES NEVARES 64u</t>
+  </si>
+  <si>
+    <t>000BNVR</t>
+  </si>
+  <si>
+    <t>CHICLES BELDENT 20u</t>
+  </si>
+  <si>
+    <t>000CBDN</t>
+  </si>
+  <si>
+    <t>MENTITAS LACASA 12u</t>
+  </si>
+  <si>
+    <t>000MLCS</t>
   </si>
 </sst>
 </file>
@@ -146,7 +161,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -169,11 +184,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -188,9 +240,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -199,6 +248,36 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -513,350 +592,379 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92619598-52C9-4677-AD6A-3F93FEE44159}">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.21875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.77734375" customWidth="1"/>
+    <col min="1" max="1" width="30.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+      <c r="B2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="D2" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="2">
+        <v>450</v>
+      </c>
+      <c r="D3" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="B4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="2">
+        <v>640</v>
+      </c>
+      <c r="D4" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="2">
+        <v>450</v>
+      </c>
+      <c r="D5" s="2">
+        <v>63</v>
+      </c>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1620</v>
+      </c>
+      <c r="D6" s="2">
+        <v>30</v>
+      </c>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="7">
+        <v>1200</v>
+      </c>
+      <c r="D10" s="7">
+        <v>30</v>
+      </c>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="7">
+        <v>920</v>
+      </c>
+      <c r="D11" s="7">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="7">
+        <v>280</v>
+      </c>
+      <c r="D12" s="7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="12" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="14"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="C15" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="7">
+        <v>30</v>
+      </c>
+      <c r="C16" s="7">
+        <f>B16*C3</f>
+        <v>13500</v>
+      </c>
+      <c r="D16" s="3">
+        <f>D3-B16</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="7">
+        <v>50</v>
+      </c>
+      <c r="C17" s="10">
+        <f>B17*C4</f>
+        <v>32000</v>
+      </c>
+      <c r="D17" s="3">
+        <f>D4-B17</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="7">
+        <v>14</v>
+      </c>
+      <c r="C18" s="7">
+        <f>C6*B18</f>
+        <v>22680</v>
+      </c>
+      <c r="D18" s="3">
+        <f>D6-B18</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="10">
+        <v>32</v>
+      </c>
+      <c r="C19" s="10">
+        <f>B19*C12</f>
+        <v>8960</v>
+      </c>
+      <c r="D19" s="3">
+        <f>D12-B19</f>
         <v>18</v>
       </c>
-      <c r="C3" s="2">
-        <v>120</v>
-      </c>
-      <c r="D3" s="2">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="10">
+        <v>11</v>
+      </c>
+      <c r="C20" s="10">
+        <f>B20*C4</f>
+        <v>7040</v>
+      </c>
+      <c r="D20" s="3">
+        <f>D17-B20</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="11">
+        <f>SUM(C16:C20)</f>
+        <v>84180</v>
+      </c>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" s="16"/>
+      <c r="C25" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="15"/>
+      <c r="C26" s="2">
+        <v>1250</v>
+      </c>
+      <c r="D26" s="3"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="15"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="2">
-        <v>70</v>
-      </c>
-      <c r="D4" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="10" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="15"/>
+      <c r="C28" s="2">
+        <v>300</v>
+      </c>
+      <c r="D28" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" s="15"/>
+      <c r="C29" s="2">
+        <v>1650</v>
+      </c>
+      <c r="D29" s="3">
         <v>20</v>
-      </c>
-      <c r="C5" s="2">
-        <v>350</v>
-      </c>
-      <c r="D5" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="2">
-        <v>150</v>
-      </c>
-      <c r="D6" s="2">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="2">
-        <v>20</v>
-      </c>
-      <c r="C10" s="2">
-        <f>B10*C3</f>
-        <v>2400</v>
-      </c>
-      <c r="D10" s="3">
-        <f>D3-B10</f>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="2">
-        <v>50</v>
-      </c>
-      <c r="C11" s="2">
-        <f>B11*C4</f>
-        <v>3500</v>
-      </c>
-      <c r="D11" s="3">
-        <f>D4-B11</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2">
-        <v>10</v>
-      </c>
-      <c r="C12" s="2">
-        <f>B12*C5</f>
-        <v>3500</v>
-      </c>
-      <c r="D12" s="3">
-        <f>D5-B12</f>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="2">
-        <v>30</v>
-      </c>
-      <c r="C13" s="2">
-        <f>B13*C6</f>
-        <v>4500</v>
-      </c>
-      <c r="D13" s="3">
-        <f>D6-B13</f>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="6">
-        <f>SUM(C10:C13)</f>
-        <v>13900</v>
-      </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="2">
-        <v>100</v>
-      </c>
-      <c r="D19" s="3"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="3">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="2">
-        <v>400</v>
-      </c>
-      <c r="D21" s="3">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="2">
-        <v>170</v>
-      </c>
-      <c r="D22" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C26" s="2">
-        <v>100</v>
-      </c>
-      <c r="D26" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C27" s="2">
-        <v>70</v>
-      </c>
-      <c r="D27" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C28" s="2">
-        <v>400</v>
-      </c>
-      <c r="D28" s="2">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C29" s="2">
-        <v>170</v>
-      </c>
-      <c r="D29" s="2">
-        <v>100</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A29:B29"/>
     <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A1:D1"/>
     <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>